--- a/project/CV/CV_79.xlsx
+++ b/project/CV/CV_79.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,5188 +498,4540 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>accomack</t>
+          <t>adair</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>369388</v>
+        <v>197383</v>
       </c>
       <c r="D2" t="n">
-        <v>5486</v>
+        <v>862</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F2" t="n">
-        <v>51001</v>
+        <v>29001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001</v>
+        <v>0.067</v>
       </c>
       <c r="H2" t="n">
-        <v>0.019</v>
+        <v>0.098</v>
       </c>
       <c r="I2" t="n">
-        <v>0.055</v>
+        <v>0.187</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1</v>
+        <v>0.253</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8240000000000001</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>albemarle</t>
+          <t>andrew</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>421117</v>
+        <v>125390</v>
       </c>
       <c r="D3" t="n">
-        <v>5671</v>
+        <v>1555</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F3" t="n">
-        <v>51003</v>
+        <v>29003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.023</v>
+        <v>0.133</v>
       </c>
       <c r="H3" t="n">
-        <v>0.022</v>
+        <v>0.197</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05400000000000001</v>
+        <v>0.164</v>
       </c>
       <c r="J3" t="n">
-        <v>0.093</v>
+        <v>0.234</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>alexandria city</t>
+          <t>atchison</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1248000</v>
+        <v>28738</v>
       </c>
       <c r="D4" t="n">
-        <v>19632</v>
+        <v>433</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F4" t="n">
-        <v>51510</v>
+        <v>29005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.032</v>
+        <v>0.09</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02</v>
+        <v>0.144</v>
       </c>
       <c r="I4" t="n">
-        <v>0.065</v>
+        <v>0.097</v>
       </c>
       <c r="J4" t="n">
-        <v>0.17</v>
+        <v>0.287</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7120000000000001</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>alleghany</t>
+          <t>audrain</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>77504</v>
+        <v>221438</v>
       </c>
       <c r="D5" t="n">
-        <v>2454</v>
+        <v>3532</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F5" t="n">
-        <v>51005</v>
+        <v>29007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.145</v>
+        <v>0.11</v>
       </c>
       <c r="H5" t="n">
-        <v>0.034</v>
+        <v>0.078</v>
       </c>
       <c r="I5" t="n">
-        <v>0.123</v>
+        <v>0.203</v>
       </c>
       <c r="J5" t="n">
-        <v>0.174</v>
+        <v>0.281</v>
       </c>
       <c r="K5" t="n">
-        <v>0.525</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>amelia</t>
+          <t>barry</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52845</v>
+        <v>221965</v>
       </c>
       <c r="D6" t="n">
-        <v>1231</v>
+        <v>3812</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F6" t="n">
-        <v>51007</v>
+        <v>29009</v>
       </c>
       <c r="G6" t="n">
-        <v>0.013</v>
+        <v>0.106</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>0.116</v>
+        <v>0.256</v>
       </c>
       <c r="J6" t="n">
-        <v>0.13</v>
+        <v>0.235</v>
       </c>
       <c r="K6" t="n">
-        <v>0.672</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>amherst</t>
+          <t>barton</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>182436</v>
+        <v>95445</v>
       </c>
       <c r="D7" t="n">
-        <v>1116</v>
+        <v>786</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F7" t="n">
-        <v>51009</v>
+        <v>29011</v>
       </c>
       <c r="G7" t="n">
-        <v>0.064</v>
+        <v>0.15</v>
       </c>
       <c r="H7" t="n">
-        <v>0.033</v>
+        <v>0.131</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.134</v>
       </c>
       <c r="J7" t="n">
-        <v>0.204</v>
+        <v>0.111</v>
       </c>
       <c r="K7" t="n">
-        <v>0.625</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>appomattox</t>
+          <t>bates</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>95265</v>
+        <v>87676</v>
       </c>
       <c r="D8" t="n">
-        <v>915</v>
+        <v>1514</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F8" t="n">
-        <v>51011</v>
+        <v>29013</v>
       </c>
       <c r="G8" t="n">
-        <v>0.063</v>
+        <v>0.138</v>
       </c>
       <c r="H8" t="n">
-        <v>0.018</v>
+        <v>0.068</v>
       </c>
       <c r="I8" t="n">
-        <v>0.105</v>
+        <v>0.112</v>
       </c>
       <c r="J8" t="n">
-        <v>0.204</v>
+        <v>0.237</v>
       </c>
       <c r="K8" t="n">
-        <v>0.61</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>arlington</t>
+          <t>benton</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1432560</v>
+        <v>135294</v>
       </c>
       <c r="D9" t="n">
-        <v>42194</v>
+        <v>1719</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F9" t="n">
-        <v>51013</v>
+        <v>29015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01</v>
+        <v>0.188</v>
       </c>
       <c r="H9" t="n">
-        <v>0.018</v>
+        <v>0.122</v>
       </c>
       <c r="I9" t="n">
-        <v>0.035</v>
+        <v>0.168</v>
       </c>
       <c r="J9" t="n">
-        <v>0.187</v>
+        <v>0.277</v>
       </c>
       <c r="K9" t="n">
-        <v>0.75</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>augusta</t>
+          <t>bollinger</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>343380</v>
+        <v>117072</v>
       </c>
       <c r="D10" t="n">
-        <v>3357</v>
+        <v>1131</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F10" t="n">
-        <v>51015</v>
+        <v>29017</v>
       </c>
       <c r="G10" t="n">
-        <v>0.029</v>
+        <v>0.097</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.152</v>
       </c>
       <c r="I10" t="n">
-        <v>0.061</v>
+        <v>0.132</v>
       </c>
       <c r="J10" t="n">
-        <v>0.173</v>
+        <v>0.268</v>
       </c>
       <c r="K10" t="n">
-        <v>0.701</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bath</t>
+          <t>boone</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15157</v>
+        <v>1696502</v>
       </c>
       <c r="D11" t="n">
-        <v>110</v>
+        <v>5805</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F11" t="n">
-        <v>51017</v>
+        <v>29019</v>
       </c>
       <c r="G11" t="n">
-        <v>0.099</v>
+        <v>0.073</v>
       </c>
       <c r="H11" t="n">
-        <v>0.045</v>
+        <v>0.075</v>
       </c>
       <c r="I11" t="n">
-        <v>0.121</v>
+        <v>0.113</v>
       </c>
       <c r="J11" t="n">
-        <v>0.165</v>
+        <v>0.224</v>
       </c>
       <c r="K11" t="n">
-        <v>0.57</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bedford</t>
+          <t>buchanan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>393450</v>
+        <v>1054097</v>
       </c>
       <c r="D12" t="n">
-        <v>4165</v>
+        <v>14023</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F12" t="n">
-        <v>51019</v>
+        <v>29021</v>
       </c>
       <c r="G12" t="n">
-        <v>0.052</v>
+        <v>0.121</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09</v>
+        <v>0.183</v>
       </c>
       <c r="I12" t="n">
-        <v>0.115</v>
+        <v>0.175</v>
       </c>
       <c r="J12" t="n">
-        <v>0.248</v>
+        <v>0.219</v>
       </c>
       <c r="K12" t="n">
-        <v>0.495</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>bland</t>
+          <t>butler</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>44205</v>
+        <v>328266</v>
       </c>
       <c r="D13" t="n">
-        <v>877</v>
+        <v>1967</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F13" t="n">
-        <v>51021</v>
+        <v>29023</v>
       </c>
       <c r="G13" t="n">
-        <v>0.081</v>
+        <v>0.189</v>
       </c>
       <c r="H13" t="n">
-        <v>0.114</v>
+        <v>0.175</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="J13" t="n">
-        <v>0.166</v>
+        <v>0.135</v>
       </c>
       <c r="K13" t="n">
-        <v>0.44</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>botetourt</t>
+          <t>caldwell</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>157883</v>
+        <v>58055</v>
       </c>
       <c r="D14" t="n">
-        <v>2936</v>
+        <v>594</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F14" t="n">
-        <v>51023</v>
+        <v>29025</v>
       </c>
       <c r="G14" t="n">
-        <v>0.043</v>
+        <v>0.109</v>
       </c>
       <c r="H14" t="n">
-        <v>0.079</v>
+        <v>0.133</v>
       </c>
       <c r="I14" t="n">
-        <v>0.106</v>
+        <v>0.211</v>
       </c>
       <c r="J14" t="n">
-        <v>0.221</v>
+        <v>0.18</v>
       </c>
       <c r="K14" t="n">
-        <v>0.551</v>
+        <v>0.3670000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>bristol city</t>
+          <t>callaway</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>98993</v>
+        <v>407655</v>
       </c>
       <c r="D15" t="n">
-        <v>1569</v>
+        <v>2387</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F15" t="n">
-        <v>51520</v>
+        <v>29027</v>
       </c>
       <c r="G15" t="n">
-        <v>0.174</v>
+        <v>0.123</v>
       </c>
       <c r="H15" t="n">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="I15" t="n">
-        <v>0.075</v>
+        <v>0.217</v>
       </c>
       <c r="J15" t="n">
-        <v>0.273</v>
+        <v>0.196</v>
       </c>
       <c r="K15" t="n">
-        <v>0.352</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>brunswick</t>
+          <t>camden</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>108422</v>
+        <v>386301</v>
       </c>
       <c r="D16" t="n">
-        <v>1153</v>
+        <v>7366</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F16" t="n">
-        <v>51025</v>
+        <v>29029</v>
       </c>
       <c r="G16" t="n">
-        <v>0.006</v>
+        <v>0.266</v>
       </c>
       <c r="H16" t="n">
-        <v>0.003</v>
+        <v>0.093</v>
       </c>
       <c r="I16" t="n">
-        <v>0.158</v>
+        <v>0.147</v>
       </c>
       <c r="J16" t="n">
-        <v>0.145</v>
+        <v>0.124</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>buchanan</t>
+          <t>cape girardeau</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>90226</v>
+        <v>875531</v>
       </c>
       <c r="D17" t="n">
-        <v>2124</v>
+        <v>12483</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F17" t="n">
-        <v>51027</v>
+        <v>29031</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H17" t="n">
-        <v>0.099</v>
+        <v>0.109</v>
       </c>
       <c r="I17" t="n">
-        <v>0.219</v>
+        <v>0.137</v>
       </c>
       <c r="J17" t="n">
-        <v>0.181</v>
+        <v>0.285</v>
       </c>
       <c r="K17" t="n">
-        <v>0.463</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>buckingham</t>
+          <t>carroll</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>239675</v>
+        <v>73409</v>
       </c>
       <c r="D18" t="n">
-        <v>2357</v>
+        <v>1352</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F18" t="n">
-        <v>51029</v>
+        <v>29033</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02</v>
+        <v>0.155</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="I18" t="n">
-        <v>0.124</v>
+        <v>0.078</v>
       </c>
       <c r="J18" t="n">
-        <v>0.132</v>
+        <v>0.286</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7140000000000001</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>buena vista city</t>
+          <t>carter</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>56334</v>
+        <v>43002</v>
       </c>
       <c r="D19" t="n">
-        <v>579</v>
+        <v>888</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F19" t="n">
-        <v>51530</v>
+        <v>29035</v>
       </c>
       <c r="G19" t="n">
-        <v>0.018</v>
+        <v>0.159</v>
       </c>
       <c r="H19" t="n">
-        <v>0.15</v>
+        <v>0.285</v>
       </c>
       <c r="I19" t="n">
-        <v>0.068</v>
+        <v>0.151</v>
       </c>
       <c r="J19" t="n">
         <v>0.125</v>
       </c>
       <c r="K19" t="n">
-        <v>0.639</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>campbell</t>
+          <t>cass</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>253131</v>
+        <v>667775</v>
       </c>
       <c r="D20" t="n">
-        <v>2441</v>
+        <v>8107</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F20" t="n">
-        <v>51031</v>
+        <v>29037</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.027</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04</v>
+        <v>0.08199999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>0.083</v>
+        <v>0.17</v>
       </c>
       <c r="J20" t="n">
-        <v>0.222</v>
+        <v>0.185</v>
       </c>
       <c r="K20" t="n">
-        <v>0.585</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>caroline</t>
+          <t>cedar</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>139741</v>
+        <v>62946</v>
       </c>
       <c r="D21" t="n">
-        <v>1701</v>
+        <v>838</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F21" t="n">
-        <v>51033</v>
+        <v>29039</v>
       </c>
       <c r="G21" t="n">
-        <v>0.047</v>
+        <v>0.275</v>
       </c>
       <c r="H21" t="n">
-        <v>0.032</v>
+        <v>0.056</v>
       </c>
       <c r="I21" t="n">
-        <v>0.031</v>
+        <v>0.173</v>
       </c>
       <c r="J21" t="n">
-        <v>0.14</v>
+        <v>0.155</v>
       </c>
       <c r="K21" t="n">
-        <v>0.75</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>carroll</t>
+          <t>chariton</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>198548</v>
+        <v>34918</v>
       </c>
       <c r="D22" t="n">
-        <v>6362</v>
+        <v>182</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F22" t="n">
-        <v>51035</v>
+        <v>29041</v>
       </c>
       <c r="G22" t="n">
-        <v>0.064</v>
+        <v>0.117</v>
       </c>
       <c r="H22" t="n">
-        <v>0.073</v>
+        <v>0.141</v>
       </c>
       <c r="I22" t="n">
         <v>0.08400000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>0.285</v>
+        <v>0.278</v>
       </c>
       <c r="K22" t="n">
-        <v>0.496</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>charles city</t>
+          <t>christian</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>31921</v>
+        <v>706506</v>
       </c>
       <c r="D23" t="n">
-        <v>1441</v>
+        <v>4791</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F23" t="n">
-        <v>51036</v>
+        <v>29043</v>
       </c>
       <c r="G23" t="n">
-        <v>0.017</v>
+        <v>0.13</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.113</v>
       </c>
       <c r="I23" t="n">
-        <v>0.103</v>
+        <v>0.053</v>
       </c>
       <c r="J23" t="n">
-        <v>0.177</v>
+        <v>0.253</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6829999999999999</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>charlotte</t>
+          <t>clark</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>53993</v>
+        <v>40922</v>
       </c>
       <c r="D24" t="n">
-        <v>675</v>
+        <v>431</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F24" t="n">
-        <v>51037</v>
+        <v>29045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.154</v>
       </c>
       <c r="H24" t="n">
-        <v>0.025</v>
+        <v>0.138</v>
       </c>
       <c r="I24" t="n">
-        <v>0.148</v>
+        <v>0.165</v>
       </c>
       <c r="J24" t="n">
-        <v>0.133</v>
+        <v>0.223</v>
       </c>
       <c r="K24" t="n">
-        <v>0.61</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>charlottesville city</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>337463</v>
+        <v>850125</v>
       </c>
       <c r="D25" t="n">
-        <v>6116</v>
+        <v>14238</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F25" t="n">
-        <v>51540</v>
+        <v>29047</v>
       </c>
       <c r="G25" t="n">
-        <v>0.023</v>
+        <v>0.033</v>
       </c>
       <c r="H25" t="n">
-        <v>0.019</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>0.05</v>
+        <v>0.076</v>
       </c>
       <c r="J25" t="n">
-        <v>0.075</v>
+        <v>0.199</v>
       </c>
       <c r="K25" t="n">
-        <v>0.833</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>chesapeake city</t>
+          <t>clinton</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1441762</v>
+        <v>140324</v>
       </c>
       <c r="D26" t="n">
-        <v>17436</v>
+        <v>5476</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F26" t="n">
-        <v>51550</v>
+        <v>29049</v>
       </c>
       <c r="G26" t="n">
-        <v>0.018</v>
+        <v>0.066</v>
       </c>
       <c r="H26" t="n">
-        <v>0.025</v>
+        <v>0.103</v>
       </c>
       <c r="I26" t="n">
-        <v>0.095</v>
+        <v>0.106</v>
       </c>
       <c r="J26" t="n">
-        <v>0.182</v>
+        <v>0.209</v>
       </c>
       <c r="K26" t="n">
-        <v>0.68</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>chesterfield</t>
+          <t>cole</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2059273</v>
+        <v>855825</v>
       </c>
       <c r="D27" t="n">
-        <v>29264</v>
+        <v>9043</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F27" t="n">
-        <v>51041</v>
+        <v>29051</v>
       </c>
       <c r="G27" t="n">
-        <v>0.026</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0.03</v>
+        <v>0.185</v>
       </c>
       <c r="I27" t="n">
-        <v>0.08</v>
+        <v>0.107</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2160000000000001</v>
+        <v>0.187</v>
       </c>
       <c r="K27" t="n">
-        <v>0.649</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>clarke</t>
+          <t>cooper</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>50500</v>
+        <v>173793</v>
       </c>
       <c r="D28" t="n">
-        <v>550</v>
+        <v>1634</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F28" t="n">
-        <v>51043</v>
+        <v>29053</v>
       </c>
       <c r="G28" t="n">
-        <v>0.013</v>
+        <v>0.06</v>
       </c>
       <c r="H28" t="n">
-        <v>0.036</v>
+        <v>0.09</v>
       </c>
       <c r="I28" t="n">
-        <v>0.057</v>
+        <v>0.127</v>
       </c>
       <c r="J28" t="n">
-        <v>0.154</v>
+        <v>0.183</v>
       </c>
       <c r="K28" t="n">
-        <v>0.74</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>colonial heights city</t>
+          <t>crawford</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>99941</v>
+        <v>186504</v>
       </c>
       <c r="D29" t="n">
-        <v>6517</v>
+        <v>2087</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F29" t="n">
-        <v>51570</v>
+        <v>29055</v>
       </c>
       <c r="G29" t="n">
-        <v>0.044</v>
+        <v>0.167</v>
       </c>
       <c r="H29" t="n">
-        <v>0.045</v>
+        <v>0.148</v>
       </c>
       <c r="I29" t="n">
-        <v>0.126</v>
+        <v>0.136</v>
       </c>
       <c r="J29" t="n">
-        <v>0.177</v>
+        <v>0.159</v>
       </c>
       <c r="K29" t="n">
-        <v>0.608</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>covington city</t>
+          <t>dade</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>36882</v>
+        <v>58975</v>
       </c>
       <c r="D30" t="n">
-        <v>280</v>
+        <v>2691</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F30" t="n">
-        <v>51580</v>
+        <v>29057</v>
       </c>
       <c r="G30" t="n">
-        <v>0.184</v>
+        <v>0.312</v>
       </c>
       <c r="H30" t="n">
-        <v>0.017</v>
+        <v>0.044</v>
       </c>
       <c r="I30" t="n">
-        <v>0.133</v>
+        <v>0.138</v>
       </c>
       <c r="J30" t="n">
-        <v>0.188</v>
+        <v>0.136</v>
       </c>
       <c r="K30" t="n">
-        <v>0.478</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>craig</t>
+          <t>dallas</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>17414</v>
+        <v>85281</v>
       </c>
       <c r="D31" t="n">
-        <v>142</v>
+        <v>1565</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F31" t="n">
-        <v>51045</v>
+        <v>29059</v>
       </c>
       <c r="G31" t="n">
-        <v>0.017</v>
+        <v>0.165</v>
       </c>
       <c r="H31" t="n">
-        <v>0.022</v>
+        <v>0.143</v>
       </c>
       <c r="I31" t="n">
-        <v>0.148</v>
+        <v>0.167</v>
       </c>
       <c r="J31" t="n">
-        <v>0.182</v>
+        <v>0.154</v>
       </c>
       <c r="K31" t="n">
-        <v>0.632</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>culpeper</t>
+          <t>daviess</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>457915</v>
+        <v>53839</v>
       </c>
       <c r="D32" t="n">
-        <v>4638</v>
+        <v>946</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F32" t="n">
-        <v>51047</v>
+        <v>29061</v>
       </c>
       <c r="G32" t="n">
-        <v>0.053</v>
+        <v>0.124</v>
       </c>
       <c r="H32" t="n">
-        <v>0.068</v>
+        <v>0.166</v>
       </c>
       <c r="I32" t="n">
-        <v>0.013</v>
+        <v>0.172</v>
       </c>
       <c r="J32" t="n">
-        <v>0.213</v>
+        <v>0.247</v>
       </c>
       <c r="K32" t="n">
-        <v>0.653</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>cumberland</t>
+          <t>dekalb</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>35103</v>
+        <v>85217</v>
       </c>
       <c r="D33" t="n">
-        <v>480</v>
+        <v>1875</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F33" t="n">
-        <v>51049</v>
+        <v>29063</v>
       </c>
       <c r="G33" t="n">
-        <v>0.012</v>
+        <v>0.144</v>
       </c>
       <c r="H33" t="n">
-        <v>0.055</v>
+        <v>0.133</v>
       </c>
       <c r="I33" t="n">
-        <v>0.098</v>
+        <v>0.159</v>
       </c>
       <c r="J33" t="n">
-        <v>0.137</v>
+        <v>0.241</v>
       </c>
       <c r="K33" t="n">
-        <v>0.6990000000000001</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>danville city</t>
+          <t>dent</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>325800</v>
+        <v>74406</v>
       </c>
       <c r="D34" t="n">
-        <v>8319</v>
+        <v>847</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F34" t="n">
-        <v>51590</v>
+        <v>29065</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.167</v>
       </c>
       <c r="H34" t="n">
-        <v>0.043</v>
+        <v>0.169</v>
       </c>
       <c r="I34" t="n">
-        <v>0.209</v>
+        <v>0.175</v>
       </c>
       <c r="J34" t="n">
-        <v>0.127</v>
+        <v>0.196</v>
       </c>
       <c r="K34" t="n">
-        <v>0.534</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>dickenson</t>
+          <t>douglas</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>62884</v>
+        <v>74367</v>
       </c>
       <c r="D35" t="n">
-        <v>695</v>
+        <v>2241</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F35" t="n">
-        <v>51051</v>
+        <v>29067</v>
       </c>
       <c r="G35" t="n">
-        <v>0.031</v>
+        <v>0.285</v>
       </c>
       <c r="H35" t="n">
-        <v>0.129</v>
+        <v>0.149</v>
       </c>
       <c r="I35" t="n">
-        <v>0.129</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>0.182</v>
+        <v>0.167</v>
       </c>
       <c r="K35" t="n">
-        <v>0.528</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>dinwiddie</t>
+          <t>dunklin</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>140491</v>
+        <v>271440</v>
       </c>
       <c r="D36" t="n">
-        <v>2488</v>
+        <v>2456</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F36" t="n">
-        <v>51053</v>
+        <v>29069</v>
       </c>
       <c r="G36" t="n">
-        <v>0.022</v>
+        <v>0.068</v>
       </c>
       <c r="H36" t="n">
-        <v>0.016</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>0.104</v>
+        <v>0.154</v>
       </c>
       <c r="J36" t="n">
-        <v>0.193</v>
+        <v>0.215</v>
       </c>
       <c r="K36" t="n">
-        <v>0.664</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>emporia city</t>
+          <t>franklin</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>74717</v>
+        <v>782887</v>
       </c>
       <c r="D37" t="n">
-        <v>5843</v>
+        <v>14470</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F37" t="n">
-        <v>51595</v>
+        <v>29071</v>
       </c>
       <c r="G37" t="n">
-        <v>0.015</v>
+        <v>0.122</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="I37" t="n">
-        <v>0.148</v>
+        <v>0.1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.148</v>
+        <v>0.233</v>
       </c>
       <c r="K37" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>essex</t>
+          <t>gasconade</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>55087</v>
+        <v>76418</v>
       </c>
       <c r="D38" t="n">
-        <v>427</v>
+        <v>4010</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F38" t="n">
-        <v>51057</v>
+        <v>29073</v>
       </c>
       <c r="G38" t="n">
-        <v>0.016</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0.081</v>
+        <v>0.207</v>
       </c>
       <c r="I38" t="n">
-        <v>0.181</v>
+        <v>0.168</v>
       </c>
       <c r="J38" t="n">
-        <v>0.16</v>
+        <v>0.135</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>fairfax</t>
+          <t>gentry</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>7280925</v>
+        <v>70310</v>
       </c>
       <c r="D39" t="n">
-        <v>161565</v>
+        <v>2862</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F39" t="n">
-        <v>51059</v>
+        <v>29075</v>
       </c>
       <c r="G39" t="n">
-        <v>0.018</v>
+        <v>0.101</v>
       </c>
       <c r="H39" t="n">
-        <v>0.016</v>
+        <v>0.166</v>
       </c>
       <c r="I39" t="n">
-        <v>0.05400000000000001</v>
+        <v>0.182</v>
       </c>
       <c r="J39" t="n">
-        <v>0.163</v>
+        <v>0.299</v>
       </c>
       <c r="K39" t="n">
-        <v>0.748</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>fairfax city</t>
+          <t>greene</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>47532</v>
+        <v>2538582</v>
       </c>
       <c r="D40" t="n">
-        <v>2210</v>
+        <v>35285</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F40" t="n">
-        <v>51600</v>
+        <v>29077</v>
       </c>
       <c r="G40" t="n">
-        <v>0.025</v>
+        <v>0.099</v>
       </c>
       <c r="H40" t="n">
-        <v>0.015</v>
+        <v>0.08199999999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>0.075</v>
+        <v>0.128</v>
       </c>
       <c r="J40" t="n">
-        <v>0.173</v>
+        <v>0.272</v>
       </c>
       <c r="K40" t="n">
-        <v>0.7120000000000001</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>falls church city</t>
+          <t>grundy</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>29148</v>
+        <v>77310</v>
       </c>
       <c r="D41" t="n">
-        <v>1877</v>
+        <v>2510</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F41" t="n">
-        <v>51610</v>
+        <v>29079</v>
       </c>
       <c r="G41" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.195</v>
       </c>
       <c r="H41" t="n">
-        <v>0.033</v>
+        <v>0.193</v>
       </c>
       <c r="I41" t="n">
-        <v>0.038</v>
+        <v>0.129</v>
       </c>
       <c r="J41" t="n">
-        <v>0.158</v>
+        <v>0.247</v>
       </c>
       <c r="K41" t="n">
-        <v>0.765</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>fauquier</t>
+          <t>harrison</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>348247</v>
+        <v>68913</v>
       </c>
       <c r="D42" t="n">
-        <v>5281</v>
+        <v>818</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F42" t="n">
-        <v>51061</v>
+        <v>29081</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04</v>
+        <v>0.173</v>
       </c>
       <c r="H42" t="n">
-        <v>0.013</v>
+        <v>0.128</v>
       </c>
       <c r="I42" t="n">
-        <v>0.042</v>
+        <v>0.215</v>
       </c>
       <c r="J42" t="n">
-        <v>0.133</v>
+        <v>0.248</v>
       </c>
       <c r="K42" t="n">
-        <v>0.772</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>floyd</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>66064</v>
+        <v>151704</v>
       </c>
       <c r="D43" t="n">
-        <v>2448</v>
+        <v>2589</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F43" t="n">
-        <v>51063</v>
+        <v>29083</v>
       </c>
       <c r="G43" t="n">
-        <v>0.079</v>
+        <v>0.128</v>
       </c>
       <c r="H43" t="n">
-        <v>0.063</v>
+        <v>0.147</v>
       </c>
       <c r="I43" t="n">
-        <v>0.092</v>
+        <v>0.117</v>
       </c>
       <c r="J43" t="n">
-        <v>0.256</v>
+        <v>0.345</v>
       </c>
       <c r="K43" t="n">
-        <v>0.51</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>fluvanna</t>
+          <t>hickory</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>116766</v>
+        <v>50568</v>
       </c>
       <c r="D44" t="n">
-        <v>2546</v>
+        <v>920</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F44" t="n">
-        <v>51065</v>
+        <v>29085</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.182</v>
       </c>
       <c r="H44" t="n">
-        <v>0.014</v>
+        <v>0.18</v>
       </c>
       <c r="I44" t="n">
-        <v>0.077</v>
+        <v>0.159</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1</v>
+        <v>0.164</v>
       </c>
       <c r="K44" t="n">
-        <v>0.772</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>franklin</t>
+          <t>holt</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>271097</v>
+        <v>37021</v>
       </c>
       <c r="D45" t="n">
-        <v>2567</v>
+        <v>710</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F45" t="n">
-        <v>51067</v>
+        <v>29087</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.129</v>
       </c>
       <c r="H45" t="n">
-        <v>0.098</v>
+        <v>0.223</v>
       </c>
       <c r="I45" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.156</v>
       </c>
       <c r="J45" t="n">
-        <v>0.189</v>
+        <v>0.232</v>
       </c>
       <c r="K45" t="n">
-        <v>0.57</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>franklin city</t>
+          <t>howard</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>106226</v>
+        <v>72647</v>
       </c>
       <c r="D46" t="n">
-        <v>2809</v>
+        <v>405</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F46" t="n">
-        <v>51620</v>
+        <v>29089</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01</v>
+        <v>0.076</v>
       </c>
       <c r="H46" t="n">
-        <v>0.027</v>
+        <v>0.096</v>
       </c>
       <c r="I46" t="n">
-        <v>0.115</v>
+        <v>0.107</v>
       </c>
       <c r="J46" t="n">
-        <v>0.192</v>
+        <v>0.191</v>
       </c>
       <c r="K46" t="n">
-        <v>0.6559999999999999</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>frederick</t>
+          <t>howell</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484267</v>
+        <v>270307</v>
       </c>
       <c r="D47" t="n">
-        <v>4343</v>
+        <v>3787</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F47" t="n">
-        <v>51069</v>
+        <v>29091</v>
       </c>
       <c r="G47" t="n">
-        <v>0.026</v>
+        <v>0.301</v>
       </c>
       <c r="H47" t="n">
-        <v>0.048</v>
+        <v>0.142</v>
       </c>
       <c r="I47" t="n">
-        <v>0.048</v>
+        <v>0.208</v>
       </c>
       <c r="J47" t="n">
-        <v>0.264</v>
+        <v>0.107</v>
       </c>
       <c r="K47" t="n">
-        <v>0.614</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>fredericksburg city</t>
+          <t>iron</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>169632</v>
+        <v>39559</v>
       </c>
       <c r="D48" t="n">
-        <v>1401</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F48" t="n">
-        <v>51630</v>
+        <v>29093</v>
       </c>
       <c r="G48" t="n">
-        <v>0.038</v>
+        <v>0.133</v>
       </c>
       <c r="H48" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.091</v>
       </c>
       <c r="I48" t="n">
-        <v>0.034</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>0.136</v>
+        <v>0.28</v>
       </c>
       <c r="K48" t="n">
-        <v>0.784</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>galax city</t>
+          <t>jackson</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>130534</v>
+        <v>2951132</v>
       </c>
       <c r="D49" t="n">
-        <v>6829</v>
+        <v>35186</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F49" t="n">
-        <v>51640</v>
+        <v>29095</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.027</v>
       </c>
       <c r="H49" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.066</v>
       </c>
       <c r="I49" t="n">
-        <v>0.049</v>
+        <v>0.08800000000000001</v>
       </c>
       <c r="J49" t="n">
-        <v>0.243</v>
+        <v>0.21</v>
       </c>
       <c r="K49" t="n">
-        <v>0.551</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>giles</t>
+          <t>jasper</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>63926</v>
+        <v>812624</v>
       </c>
       <c r="D50" t="n">
-        <v>293</v>
+        <v>10413</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F50" t="n">
-        <v>51071</v>
+        <v>29097</v>
       </c>
       <c r="G50" t="n">
-        <v>0.066</v>
+        <v>0.138</v>
       </c>
       <c r="H50" t="n">
-        <v>0.09</v>
+        <v>0.152</v>
       </c>
       <c r="I50" t="n">
-        <v>0.14</v>
+        <v>0.147</v>
       </c>
       <c r="J50" t="n">
-        <v>0.137</v>
+        <v>0.176</v>
       </c>
       <c r="K50" t="n">
-        <v>0.5670000000000001</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>gloucester</t>
+          <t>jefferson</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>115907</v>
+        <v>1967252</v>
       </c>
       <c r="D51" t="n">
-        <v>1377</v>
+        <v>20329</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F51" t="n">
-        <v>51073</v>
+        <v>29099</v>
       </c>
       <c r="G51" t="n">
-        <v>0.003</v>
+        <v>0.042</v>
       </c>
       <c r="H51" t="n">
-        <v>0.004</v>
+        <v>0.117</v>
       </c>
       <c r="I51" t="n">
-        <v>0.035</v>
+        <v>0.178</v>
       </c>
       <c r="J51" t="n">
-        <v>0.234</v>
+        <v>0.2160000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>0.7240000000000001</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>goochland</t>
+          <t>johnson</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>100687</v>
+        <v>404346</v>
       </c>
       <c r="D52" t="n">
-        <v>1956</v>
+        <v>3097</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F52" t="n">
-        <v>51075</v>
+        <v>29101</v>
       </c>
       <c r="G52" t="n">
-        <v>0.034</v>
+        <v>0.168</v>
       </c>
       <c r="H52" t="n">
-        <v>0.043</v>
+        <v>0.107</v>
       </c>
       <c r="I52" t="n">
-        <v>0.065</v>
+        <v>0.026</v>
       </c>
       <c r="J52" t="n">
-        <v>0.097</v>
+        <v>0.189</v>
       </c>
       <c r="K52" t="n">
-        <v>0.7609999999999999</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>grayson</t>
+          <t>joplin</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>105885</v>
+        <v>510558</v>
       </c>
       <c r="D53" t="n">
-        <v>3569</v>
+        <v>9567</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>44239</v>
       </c>
-      <c r="F53" t="n">
-        <v>51077</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.527</v>
-      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>greene</t>
+          <t>kansas city</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>81406</v>
+        <v>4046975</v>
       </c>
       <c r="D54" t="n">
-        <v>802</v>
+        <v>49204</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>44239</v>
       </c>
-      <c r="F54" t="n">
-        <v>51079</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.747</v>
-      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>greensville</t>
+          <t>knox</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>198161</v>
+        <v>18972</v>
       </c>
       <c r="D55" t="n">
-        <v>3493</v>
+        <v>193</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F55" t="n">
-        <v>51081</v>
+        <v>29103</v>
       </c>
       <c r="G55" t="n">
-        <v>0.014</v>
+        <v>0.08199999999999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0.002</v>
+        <v>0.112</v>
       </c>
       <c r="I55" t="n">
-        <v>0.145</v>
+        <v>0.182</v>
       </c>
       <c r="J55" t="n">
-        <v>0.158</v>
+        <v>0.271</v>
       </c>
       <c r="K55" t="n">
-        <v>0.6809999999999999</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>halifax</t>
+          <t>laclede</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>158851</v>
+        <v>289698</v>
       </c>
       <c r="D56" t="n">
-        <v>3689</v>
+        <v>5011</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F56" t="n">
-        <v>51083</v>
+        <v>29105</v>
       </c>
       <c r="G56" t="n">
-        <v>0.092</v>
+        <v>0.313</v>
       </c>
       <c r="H56" t="n">
-        <v>0.028</v>
+        <v>0.121</v>
       </c>
       <c r="I56" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.172</v>
       </c>
       <c r="J56" t="n">
-        <v>0.165</v>
+        <v>0.107</v>
       </c>
       <c r="K56" t="n">
-        <v>0.643</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>hampton city</t>
+          <t>lafayette</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>642425</v>
+        <v>241577</v>
       </c>
       <c r="D57" t="n">
-        <v>7062</v>
+        <v>4720</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F57" t="n">
-        <v>51650</v>
+        <v>29107</v>
       </c>
       <c r="G57" t="n">
-        <v>0.008</v>
+        <v>0.033</v>
       </c>
       <c r="H57" t="n">
-        <v>0.025</v>
+        <v>0.098</v>
       </c>
       <c r="I57" t="n">
-        <v>0.078</v>
+        <v>0.052</v>
       </c>
       <c r="J57" t="n">
-        <v>0.118</v>
+        <v>0.247</v>
       </c>
       <c r="K57" t="n">
-        <v>0.7709999999999999</v>
+        <v>0.5710000000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>hanover</t>
+          <t>lawrence</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>521082</v>
+        <v>278938</v>
       </c>
       <c r="D58" t="n">
-        <v>12945</v>
+        <v>5451</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F58" t="n">
-        <v>51085</v>
+        <v>29109</v>
       </c>
       <c r="G58" t="n">
-        <v>0.043</v>
+        <v>0.241</v>
       </c>
       <c r="H58" t="n">
-        <v>0.052</v>
+        <v>0.05</v>
       </c>
       <c r="I58" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.251</v>
       </c>
       <c r="J58" t="n">
-        <v>0.25</v>
+        <v>0.222</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>harrisonburg city</t>
+          <t>lewis</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>709676</v>
+        <v>61129</v>
       </c>
       <c r="D59" t="n">
-        <v>10020</v>
+        <v>528</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F59" t="n">
-        <v>51660</v>
+        <v>29111</v>
       </c>
       <c r="G59" t="n">
-        <v>0.029</v>
+        <v>0.164</v>
       </c>
       <c r="H59" t="n">
-        <v>0.066</v>
+        <v>0.109</v>
       </c>
       <c r="I59" t="n">
-        <v>0.129</v>
+        <v>0.177</v>
       </c>
       <c r="J59" t="n">
-        <v>0.205</v>
+        <v>0.23</v>
       </c>
       <c r="K59" t="n">
-        <v>0.5710000000000001</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>henrico</t>
+          <t>lincoln</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1935683</v>
+        <v>397111</v>
       </c>
       <c r="D60" t="n">
-        <v>63136</v>
+        <v>2072</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F60" t="n">
-        <v>51087</v>
+        <v>29113</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04</v>
+        <v>0.063</v>
       </c>
       <c r="H60" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.119</v>
       </c>
       <c r="I60" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.236</v>
       </c>
       <c r="J60" t="n">
-        <v>0.191</v>
+        <v>0.282</v>
       </c>
       <c r="K60" t="n">
-        <v>0.662</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>henry</t>
+          <t>linn</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>372956</v>
+        <v>49063</v>
       </c>
       <c r="D61" t="n">
-        <v>7564</v>
+        <v>1317</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F61" t="n">
-        <v>51089</v>
+        <v>29115</v>
       </c>
       <c r="G61" t="n">
-        <v>0.063</v>
+        <v>0.126</v>
       </c>
       <c r="H61" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.156</v>
       </c>
       <c r="I61" t="n">
-        <v>0.132</v>
+        <v>0.118</v>
       </c>
       <c r="J61" t="n">
-        <v>0.154</v>
+        <v>0.274</v>
       </c>
       <c r="K61" t="n">
-        <v>0.5660000000000001</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>highland</t>
+          <t>livingston</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5562</v>
+        <v>129613</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>2295</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F62" t="n">
-        <v>51091</v>
+        <v>29117</v>
       </c>
       <c r="G62" t="n">
-        <v>0.059</v>
+        <v>0.15</v>
       </c>
       <c r="H62" t="n">
-        <v>0.041</v>
+        <v>0.228</v>
       </c>
       <c r="I62" t="n">
-        <v>0.103</v>
+        <v>0.111</v>
       </c>
       <c r="J62" t="n">
-        <v>0.197</v>
+        <v>0.25</v>
       </c>
       <c r="K62" t="n">
-        <v>0.599</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>hopewell city</t>
+          <t>macon</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>149272</v>
+        <v>98364</v>
       </c>
       <c r="D63" t="n">
-        <v>1901</v>
+        <v>682</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F63" t="n">
-        <v>51670</v>
+        <v>29121</v>
       </c>
       <c r="G63" t="n">
-        <v>0.038</v>
+        <v>0.118</v>
       </c>
       <c r="H63" t="n">
-        <v>0.038</v>
+        <v>0.127</v>
       </c>
       <c r="I63" t="n">
-        <v>0.149</v>
+        <v>0.158</v>
       </c>
       <c r="J63" t="n">
-        <v>0.187</v>
+        <v>0.258</v>
       </c>
       <c r="K63" t="n">
-        <v>0.588</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>isle of wight</t>
+          <t>madison</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>229049</v>
+        <v>131735</v>
       </c>
       <c r="D64" t="n">
-        <v>5175</v>
+        <v>1082</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F64" t="n">
-        <v>51093</v>
+        <v>29123</v>
       </c>
       <c r="G64" t="n">
-        <v>0.039</v>
+        <v>0.08199999999999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0.055</v>
+        <v>0.124</v>
       </c>
       <c r="I64" t="n">
-        <v>0.059</v>
+        <v>0.092</v>
       </c>
       <c r="J64" t="n">
-        <v>0.277</v>
+        <v>0.296</v>
       </c>
       <c r="K64" t="n">
-        <v>0.569</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>james city</t>
+          <t>maries</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>305576</v>
+        <v>51081</v>
       </c>
       <c r="D65" t="n">
-        <v>6349</v>
+        <v>505</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F65" t="n">
-        <v>51095</v>
+        <v>29125</v>
       </c>
       <c r="G65" t="n">
-        <v>0.006</v>
+        <v>0.098</v>
       </c>
       <c r="H65" t="n">
-        <v>0.008</v>
+        <v>0.158</v>
       </c>
       <c r="I65" t="n">
-        <v>0.005</v>
+        <v>0.121</v>
       </c>
       <c r="J65" t="n">
-        <v>0.231</v>
+        <v>0.198</v>
       </c>
       <c r="K65" t="n">
-        <v>0.75</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>king and queen</t>
+          <t>marion</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>24603</v>
+        <v>270354</v>
       </c>
       <c r="D66" t="n">
-        <v>402</v>
+        <v>3326</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F66" t="n">
-        <v>51097</v>
+        <v>29127</v>
       </c>
       <c r="G66" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.178</v>
       </c>
       <c r="H66" t="n">
-        <v>0.041</v>
+        <v>0.093</v>
       </c>
       <c r="I66" t="n">
-        <v>0.149</v>
+        <v>0.212</v>
       </c>
       <c r="J66" t="n">
-        <v>0.191</v>
+        <v>0.185</v>
       </c>
       <c r="K66" t="n">
-        <v>0.612</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>king george</t>
+          <t>mcdonald</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>100137</v>
+        <v>335492</v>
       </c>
       <c r="D67" t="n">
-        <v>1629</v>
+        <v>3654</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F67" t="n">
-        <v>51099</v>
+        <v>29119</v>
       </c>
       <c r="G67" t="n">
-        <v>0.151</v>
+        <v>0.152</v>
       </c>
       <c r="H67" t="n">
-        <v>0.044</v>
+        <v>0.145</v>
       </c>
       <c r="I67" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.08900000000000001</v>
       </c>
       <c r="J67" t="n">
-        <v>0.053</v>
+        <v>0.138</v>
       </c>
       <c r="K67" t="n">
-        <v>0.6659999999999999</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>king william</t>
+          <t>mercer</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>62626</v>
+        <v>14425</v>
       </c>
       <c r="D68" t="n">
-        <v>769</v>
+        <v>111</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F68" t="n">
-        <v>51101</v>
+        <v>29129</v>
       </c>
       <c r="G68" t="n">
-        <v>0.012</v>
+        <v>0.23</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I68" t="n">
-        <v>0.201</v>
+        <v>0.2160000000000001</v>
       </c>
       <c r="J68" t="n">
-        <v>0.169</v>
+        <v>0.162</v>
       </c>
       <c r="K68" t="n">
-        <v>0.546</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>lancaster</t>
+          <t>miller</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>48124</v>
+        <v>229726</v>
       </c>
       <c r="D69" t="n">
-        <v>238</v>
+        <v>3850</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F69" t="n">
-        <v>51103</v>
+        <v>29131</v>
       </c>
       <c r="G69" t="n">
-        <v>0.001</v>
+        <v>0.2</v>
       </c>
       <c r="H69" t="n">
-        <v>0.022</v>
+        <v>0.126</v>
       </c>
       <c r="I69" t="n">
-        <v>0.121</v>
+        <v>0.137</v>
       </c>
       <c r="J69" t="n">
-        <v>0.178</v>
+        <v>0.147</v>
       </c>
       <c r="K69" t="n">
-        <v>0.6779999999999999</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>lee</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>169124</v>
+        <v>135063</v>
       </c>
       <c r="D70" t="n">
-        <v>2950</v>
+        <v>1536</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F70" t="n">
-        <v>51105</v>
+        <v>29133</v>
       </c>
       <c r="G70" t="n">
-        <v>0.107</v>
+        <v>0.129</v>
       </c>
       <c r="H70" t="n">
-        <v>0.135</v>
+        <v>0.097</v>
       </c>
       <c r="I70" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.141</v>
       </c>
       <c r="J70" t="n">
-        <v>0.104</v>
+        <v>0.221</v>
       </c>
       <c r="K70" t="n">
-        <v>0.5820000000000001</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>lexington city</t>
+          <t>moniteau</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>66264</v>
+        <v>175360</v>
       </c>
       <c r="D71" t="n">
-        <v>754</v>
+        <v>2445</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F71" t="n">
-        <v>51678</v>
+        <v>29135</v>
       </c>
       <c r="G71" t="n">
-        <v>0.01</v>
+        <v>0.102</v>
       </c>
       <c r="H71" t="n">
-        <v>0.146</v>
+        <v>0.268</v>
       </c>
       <c r="I71" t="n">
-        <v>0.059</v>
+        <v>0.11</v>
       </c>
       <c r="J71" t="n">
-        <v>0.121</v>
+        <v>0.202</v>
       </c>
       <c r="K71" t="n">
-        <v>0.6629999999999999</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>loudoun</t>
+          <t>monroe</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2317807</v>
+        <v>55068</v>
       </c>
       <c r="D72" t="n">
-        <v>34262</v>
+        <v>570</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F72" t="n">
-        <v>51107</v>
+        <v>29137</v>
       </c>
       <c r="G72" t="n">
-        <v>0.014</v>
+        <v>0.164</v>
       </c>
       <c r="H72" t="n">
-        <v>0.012</v>
+        <v>0.105</v>
       </c>
       <c r="I72" t="n">
-        <v>0.038</v>
+        <v>0.182</v>
       </c>
       <c r="J72" t="n">
-        <v>0.173</v>
+        <v>0.203</v>
       </c>
       <c r="K72" t="n">
-        <v>0.763</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>louisa</t>
+          <t>montgomery</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>128425</v>
+        <v>53073</v>
       </c>
       <c r="D73" t="n">
-        <v>1509</v>
+        <v>814</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F73" t="n">
-        <v>51109</v>
+        <v>29139</v>
       </c>
       <c r="G73" t="n">
-        <v>0.025</v>
+        <v>0.062</v>
       </c>
       <c r="H73" t="n">
-        <v>0.045</v>
+        <v>0.077</v>
       </c>
       <c r="I73" t="n">
-        <v>0.036</v>
+        <v>0.161</v>
       </c>
       <c r="J73" t="n">
-        <v>0.146</v>
+        <v>0.307</v>
       </c>
       <c r="K73" t="n">
-        <v>0.748</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>lunenburg</t>
+          <t>morgan</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>45668</v>
+        <v>163670</v>
       </c>
       <c r="D74" t="n">
-        <v>591</v>
+        <v>2351</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F74" t="n">
-        <v>51111</v>
+        <v>29141</v>
       </c>
       <c r="G74" t="n">
-        <v>0.068</v>
+        <v>0.211</v>
       </c>
       <c r="H74" t="n">
-        <v>0.006</v>
+        <v>0.118</v>
       </c>
       <c r="I74" t="n">
-        <v>0.134</v>
+        <v>0.175</v>
       </c>
       <c r="J74" t="n">
-        <v>0.143</v>
+        <v>0.193</v>
       </c>
       <c r="K74" t="n">
-        <v>0.649</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>lynchburg city</t>
+          <t>new madrid</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>546679</v>
+        <v>201988</v>
       </c>
       <c r="D75" t="n">
-        <v>6207</v>
+        <v>4304</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F75" t="n">
-        <v>51680</v>
+        <v>29143</v>
       </c>
       <c r="G75" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.098</v>
       </c>
       <c r="H75" t="n">
-        <v>0.031</v>
+        <v>0.112</v>
       </c>
       <c r="I75" t="n">
-        <v>0.073</v>
+        <v>0.149</v>
       </c>
       <c r="J75" t="n">
-        <v>0.222</v>
+        <v>0.18</v>
       </c>
       <c r="K75" t="n">
-        <v>0.603</v>
+        <v>0.461</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>madison</t>
+          <t>newton</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>43451</v>
+        <v>487596</v>
       </c>
       <c r="D76" t="n">
-        <v>756</v>
+        <v>6088</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F76" t="n">
-        <v>51113</v>
+        <v>29145</v>
       </c>
       <c r="G76" t="n">
-        <v>0.017</v>
+        <v>0.156</v>
       </c>
       <c r="H76" t="n">
-        <v>0.097</v>
+        <v>0.121</v>
       </c>
       <c r="I76" t="n">
-        <v>0.064</v>
+        <v>0.14</v>
       </c>
       <c r="J76" t="n">
-        <v>0.154</v>
+        <v>0.211</v>
       </c>
       <c r="K76" t="n">
-        <v>0.6679999999999999</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>manassas city</t>
+          <t>nodaway</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>571131</v>
+        <v>282126</v>
       </c>
       <c r="D77" t="n">
-        <v>6438</v>
+        <v>2219</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F77" t="n">
-        <v>51683</v>
+        <v>29147</v>
       </c>
       <c r="G77" t="n">
-        <v>0.033</v>
+        <v>0.093</v>
       </c>
       <c r="H77" t="n">
-        <v>0.023</v>
+        <v>0.193</v>
       </c>
       <c r="I77" t="n">
-        <v>0.027</v>
+        <v>0.16</v>
       </c>
       <c r="J77" t="n">
-        <v>0.175</v>
+        <v>0.283</v>
       </c>
       <c r="K77" t="n">
-        <v>0.742</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>manassas park city</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>176967</v>
+        <v>60976</v>
       </c>
       <c r="D78" t="n">
-        <v>2003</v>
+        <v>204</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F78" t="n">
-        <v>51685</v>
+        <v>29149</v>
       </c>
       <c r="G78" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.142</v>
       </c>
       <c r="H78" t="n">
-        <v>0.025</v>
+        <v>0.196</v>
       </c>
       <c r="I78" t="n">
-        <v>0.017</v>
+        <v>0.293</v>
       </c>
       <c r="J78" t="n">
-        <v>0.167</v>
+        <v>0.129</v>
       </c>
       <c r="K78" t="n">
-        <v>0.72</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>martinsville city</t>
+          <t>osage</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>136344</v>
+        <v>129939</v>
       </c>
       <c r="D79" t="n">
-        <v>4120</v>
+        <v>839</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F79" t="n">
-        <v>51690</v>
+        <v>29151</v>
       </c>
       <c r="G79" t="n">
-        <v>0.063</v>
+        <v>0.067</v>
       </c>
       <c r="H79" t="n">
-        <v>0.076</v>
+        <v>0.133</v>
       </c>
       <c r="I79" t="n">
-        <v>0.134</v>
+        <v>0.171</v>
       </c>
       <c r="J79" t="n">
-        <v>0.163</v>
+        <v>0.16</v>
       </c>
       <c r="K79" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>mathews</t>
+          <t>ozark</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>35001</v>
+        <v>47588</v>
       </c>
       <c r="D80" t="n">
-        <v>297</v>
+        <v>498</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F80" t="n">
-        <v>51115</v>
+        <v>29153</v>
       </c>
       <c r="G80" t="n">
-        <v>0.001</v>
+        <v>0.179</v>
       </c>
       <c r="H80" t="n">
-        <v>0.001</v>
+        <v>0.128</v>
       </c>
       <c r="I80" t="n">
-        <v>0.049</v>
+        <v>0.128</v>
       </c>
       <c r="J80" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="K80" t="n">
-        <v>0.76</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>mecklenburg</t>
+          <t>pemiscot</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>214473</v>
+        <v>175192</v>
       </c>
       <c r="D81" t="n">
-        <v>9290</v>
+        <v>3430</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F81" t="n">
-        <v>51117</v>
+        <v>29155</v>
       </c>
       <c r="G81" t="n">
-        <v>0.063</v>
+        <v>0.079</v>
       </c>
       <c r="H81" t="n">
-        <v>0.022</v>
+        <v>0.134</v>
       </c>
       <c r="I81" t="n">
-        <v>0.128</v>
+        <v>0.175</v>
       </c>
       <c r="J81" t="n">
-        <v>0.14</v>
+        <v>0.204</v>
       </c>
       <c r="K81" t="n">
-        <v>0.648</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>middlesex</t>
+          <t>perry</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>36874</v>
+        <v>232608</v>
       </c>
       <c r="D82" t="n">
-        <v>1833</v>
+        <v>2223</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F82" t="n">
-        <v>51119</v>
+        <v>29157</v>
       </c>
       <c r="G82" t="n">
-        <v>0.001</v>
+        <v>0.032</v>
       </c>
       <c r="H82" t="n">
-        <v>0.004</v>
+        <v>0.102</v>
       </c>
       <c r="I82" t="n">
-        <v>0.103</v>
+        <v>0.156</v>
       </c>
       <c r="J82" t="n">
-        <v>0.237</v>
+        <v>0.302</v>
       </c>
       <c r="K82" t="n">
-        <v>0.654</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>montgomery</t>
+          <t>pettis</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>644664</v>
+        <v>502670</v>
       </c>
       <c r="D83" t="n">
-        <v>4133</v>
+        <v>6655</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F83" t="n">
-        <v>51121</v>
+        <v>29159</v>
       </c>
       <c r="G83" t="n">
-        <v>0.056</v>
+        <v>0.185</v>
       </c>
       <c r="H83" t="n">
-        <v>0.042</v>
+        <v>0.111</v>
       </c>
       <c r="I83" t="n">
-        <v>0.09</v>
+        <v>0.156</v>
       </c>
       <c r="J83" t="n">
-        <v>0.171</v>
+        <v>0.254</v>
       </c>
       <c r="K83" t="n">
-        <v>0.64</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>nelson</t>
+          <t>phelps</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>46979</v>
+        <v>264986</v>
       </c>
       <c r="D84" t="n">
-        <v>486</v>
+        <v>8234</v>
       </c>
       <c r="E84" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F84" t="n">
-        <v>51125</v>
+        <v>29161</v>
       </c>
       <c r="G84" t="n">
-        <v>0.011</v>
+        <v>0.139</v>
       </c>
       <c r="H84" t="n">
-        <v>0.015</v>
+        <v>0.177</v>
       </c>
       <c r="I84" t="n">
-        <v>0.106</v>
+        <v>0.119</v>
       </c>
       <c r="J84" t="n">
-        <v>0.167</v>
+        <v>0.244</v>
       </c>
       <c r="K84" t="n">
-        <v>0.701</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>new kent</t>
+          <t>pike</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>88719</v>
+        <v>136951</v>
       </c>
       <c r="D85" t="n">
-        <v>821</v>
+        <v>1736</v>
       </c>
       <c r="E85" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F85" t="n">
-        <v>51127</v>
+        <v>29163</v>
       </c>
       <c r="G85" t="n">
-        <v>0.008</v>
+        <v>0.08199999999999999</v>
       </c>
       <c r="H85" t="n">
-        <v>0.035</v>
+        <v>0.128</v>
       </c>
       <c r="I85" t="n">
-        <v>0.079</v>
+        <v>0.363</v>
       </c>
       <c r="J85" t="n">
-        <v>0.17</v>
+        <v>0.263</v>
       </c>
       <c r="K85" t="n">
-        <v>0.708</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>newport news city</t>
+          <t>platte</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>906937</v>
+        <v>295073</v>
       </c>
       <c r="D86" t="n">
-        <v>11316</v>
+        <v>3696</v>
       </c>
       <c r="E86" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F86" t="n">
-        <v>51700</v>
+        <v>29165</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01</v>
+        <v>0.044</v>
       </c>
       <c r="H86" t="n">
-        <v>0.038</v>
+        <v>0.04</v>
       </c>
       <c r="I86" t="n">
-        <v>0.035</v>
+        <v>0.08800000000000001</v>
       </c>
       <c r="J86" t="n">
-        <v>0.145</v>
+        <v>0.189</v>
       </c>
       <c r="K86" t="n">
-        <v>0.772</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>norfolk city</t>
+          <t>polk</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1428870</v>
+        <v>299292</v>
       </c>
       <c r="D87" t="n">
-        <v>17925</v>
+        <v>3883</v>
       </c>
       <c r="E87" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F87" t="n">
-        <v>51710</v>
+        <v>29167</v>
       </c>
       <c r="G87" t="n">
-        <v>0.004</v>
+        <v>0.183</v>
       </c>
       <c r="H87" t="n">
-        <v>0.03</v>
+        <v>0.109</v>
       </c>
       <c r="I87" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.103</v>
       </c>
       <c r="J87" t="n">
-        <v>0.215</v>
+        <v>0.189</v>
       </c>
       <c r="K87" t="n">
-        <v>0.664</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>northampton</t>
+          <t>pulaski</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>97317</v>
+        <v>289231</v>
       </c>
       <c r="D88" t="n">
-        <v>7996</v>
+        <v>3149</v>
       </c>
       <c r="E88" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F88" t="n">
-        <v>51131</v>
+        <v>29169</v>
       </c>
       <c r="G88" t="n">
-        <v>0.001</v>
+        <v>0.208</v>
       </c>
       <c r="H88" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.103</v>
       </c>
       <c r="I88" t="n">
-        <v>0.08900000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="J88" t="n">
-        <v>0.112</v>
+        <v>0.175</v>
       </c>
       <c r="K88" t="n">
-        <v>0.7609999999999999</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>northumberland</t>
+          <t>putnam</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>56610</v>
+        <v>20689</v>
       </c>
       <c r="D89" t="n">
-        <v>1569</v>
+        <v>235</v>
       </c>
       <c r="E89" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F89" t="n">
-        <v>51133</v>
+        <v>29171</v>
       </c>
       <c r="G89" t="n">
-        <v>0.017</v>
+        <v>0.107</v>
       </c>
       <c r="H89" t="n">
-        <v>0.038</v>
+        <v>0.111</v>
       </c>
       <c r="I89" t="n">
-        <v>0.095</v>
+        <v>0.209</v>
       </c>
       <c r="J89" t="n">
-        <v>0.141</v>
+        <v>0.191</v>
       </c>
       <c r="K89" t="n">
-        <v>0.71</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>norton city</t>
+          <t>ralls</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>18311</v>
+        <v>71356</v>
       </c>
       <c r="D90" t="n">
-        <v>103</v>
+        <v>542</v>
       </c>
       <c r="E90" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F90" t="n">
-        <v>51720</v>
+        <v>29173</v>
       </c>
       <c r="G90" t="n">
-        <v>0.017</v>
+        <v>0.16</v>
       </c>
       <c r="H90" t="n">
-        <v>0.056</v>
+        <v>0.106</v>
       </c>
       <c r="I90" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.248</v>
       </c>
       <c r="J90" t="n">
-        <v>0.155</v>
+        <v>0.196</v>
       </c>
       <c r="K90" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>nottoway</t>
+          <t>randolph</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>133960</v>
+        <v>173340</v>
       </c>
       <c r="D91" t="n">
-        <v>4156</v>
+        <v>1639</v>
       </c>
       <c r="E91" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F91" t="n">
-        <v>51135</v>
+        <v>29175</v>
       </c>
       <c r="G91" t="n">
-        <v>0.044</v>
+        <v>0.163</v>
       </c>
       <c r="H91" t="n">
-        <v>0.014</v>
+        <v>0.08800000000000001</v>
       </c>
       <c r="I91" t="n">
-        <v>0.099</v>
+        <v>0.145</v>
       </c>
       <c r="J91" t="n">
-        <v>0.182</v>
+        <v>0.194</v>
       </c>
       <c r="K91" t="n">
-        <v>0.6609999999999999</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>ray</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>136704</v>
+        <v>119256</v>
       </c>
       <c r="D92" t="n">
-        <v>1703</v>
+        <v>1007</v>
       </c>
       <c r="E92" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F92" t="n">
-        <v>51137</v>
+        <v>29177</v>
       </c>
       <c r="G92" t="n">
-        <v>0.033</v>
+        <v>0.073</v>
       </c>
       <c r="H92" t="n">
-        <v>0.132</v>
+        <v>0.124</v>
       </c>
       <c r="I92" t="n">
-        <v>0.038</v>
+        <v>0.233</v>
       </c>
       <c r="J92" t="n">
-        <v>0.153</v>
+        <v>0.184</v>
       </c>
       <c r="K92" t="n">
-        <v>0.643</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>page</t>
+          <t>reynolds</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>161668</v>
+        <v>39914</v>
       </c>
       <c r="D93" t="n">
-        <v>7980</v>
+        <v>267</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F93" t="n">
-        <v>51139</v>
+        <v>29179</v>
       </c>
       <c r="G93" t="n">
-        <v>0.025</v>
+        <v>0.137</v>
       </c>
       <c r="H93" t="n">
-        <v>0.052</v>
+        <v>0.183</v>
       </c>
       <c r="I93" t="n">
-        <v>0.237</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="J93" t="n">
-        <v>0.166</v>
+        <v>0.229</v>
       </c>
       <c r="K93" t="n">
-        <v>0.52</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>patrick</t>
+          <t>ripley</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>98592</v>
+        <v>77671</v>
       </c>
       <c r="D94" t="n">
-        <v>4547</v>
+        <v>915</v>
       </c>
       <c r="E94" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F94" t="n">
-        <v>51141</v>
+        <v>29181</v>
       </c>
       <c r="G94" t="n">
-        <v>0.042</v>
+        <v>0.126</v>
       </c>
       <c r="H94" t="n">
-        <v>0.098</v>
+        <v>0.254</v>
       </c>
       <c r="I94" t="n">
-        <v>0.166</v>
+        <v>0.161</v>
       </c>
       <c r="J94" t="n">
-        <v>0.203</v>
+        <v>0.15</v>
       </c>
       <c r="K94" t="n">
-        <v>0.491</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>petersburg city</t>
+          <t>saline</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>247477</v>
+        <v>281333</v>
       </c>
       <c r="D95" t="n">
-        <v>6104</v>
+        <v>3118</v>
       </c>
       <c r="E95" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F95" t="n">
-        <v>51730</v>
+        <v>29195</v>
       </c>
       <c r="G95" t="n">
-        <v>0.034</v>
+        <v>0.083</v>
       </c>
       <c r="H95" t="n">
-        <v>0.033</v>
+        <v>0.23</v>
       </c>
       <c r="I95" t="n">
-        <v>0.116</v>
+        <v>0.112</v>
       </c>
       <c r="J95" t="n">
-        <v>0.177</v>
+        <v>0.1860000000000001</v>
       </c>
       <c r="K95" t="n">
-        <v>0.64</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>pittsylvania</t>
+          <t>schuyler</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>364715</v>
+        <v>20997</v>
       </c>
       <c r="D96" t="n">
-        <v>4259</v>
+        <v>85</v>
       </c>
       <c r="E96" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F96" t="n">
-        <v>51143</v>
+        <v>29197</v>
       </c>
       <c r="G96" t="n">
-        <v>0.106</v>
+        <v>0.05</v>
       </c>
       <c r="H96" t="n">
-        <v>0.045</v>
+        <v>0.101</v>
       </c>
       <c r="I96" t="n">
-        <v>0.147</v>
+        <v>0.211</v>
       </c>
       <c r="J96" t="n">
-        <v>0.135</v>
+        <v>0.222</v>
       </c>
       <c r="K96" t="n">
-        <v>0.5670000000000001</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>poquoson city</t>
+          <t>scotland</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>41198</v>
+        <v>24624</v>
       </c>
       <c r="D97" t="n">
-        <v>559</v>
+        <v>368</v>
       </c>
       <c r="E97" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F97" t="n">
-        <v>51735</v>
+        <v>29199</v>
       </c>
       <c r="G97" t="n">
-        <v>0.004</v>
+        <v>0.073</v>
       </c>
       <c r="H97" t="n">
-        <v>0.014</v>
+        <v>0.112</v>
       </c>
       <c r="I97" t="n">
-        <v>0.073</v>
+        <v>0.209</v>
       </c>
       <c r="J97" t="n">
-        <v>0.219</v>
+        <v>0.246</v>
       </c>
       <c r="K97" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>portsmouth city</t>
+          <t>scott</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>728933</v>
+        <v>402918</v>
       </c>
       <c r="D98" t="n">
-        <v>14107</v>
+        <v>7801</v>
       </c>
       <c r="E98" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F98" t="n">
-        <v>51740</v>
+        <v>29201</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H98" t="n">
-        <v>0.019</v>
+        <v>0.115</v>
       </c>
       <c r="I98" t="n">
-        <v>0.122</v>
+        <v>0.128</v>
       </c>
       <c r="J98" t="n">
-        <v>0.225</v>
+        <v>0.247</v>
       </c>
       <c r="K98" t="n">
-        <v>0.634</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>powhatan</t>
+          <t>shannon</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>107506</v>
+        <v>51068</v>
       </c>
       <c r="D99" t="n">
-        <v>1165</v>
+        <v>1068</v>
       </c>
       <c r="E99" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F99" t="n">
-        <v>51145</v>
+        <v>29203</v>
       </c>
       <c r="G99" t="n">
-        <v>0.012</v>
+        <v>0.212</v>
       </c>
       <c r="H99" t="n">
-        <v>0.092</v>
+        <v>0.25</v>
       </c>
       <c r="I99" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.198</v>
       </c>
       <c r="J99" t="n">
-        <v>0.162</v>
+        <v>0.098</v>
       </c>
       <c r="K99" t="n">
-        <v>0.66</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>prince edward</t>
+          <t>shelby</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>185874</v>
+        <v>33215</v>
       </c>
       <c r="D100" t="n">
-        <v>3171</v>
+        <v>342</v>
       </c>
       <c r="E100" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F100" t="n">
-        <v>51147</v>
+        <v>29205</v>
       </c>
       <c r="G100" t="n">
-        <v>0.059</v>
+        <v>0.142</v>
       </c>
       <c r="H100" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.144</v>
       </c>
       <c r="I100" t="n">
-        <v>0.138</v>
+        <v>0.16</v>
       </c>
       <c r="J100" t="n">
-        <v>0.154</v>
+        <v>0.238</v>
       </c>
       <c r="K100" t="n">
-        <v>0.64</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>prince george</t>
+          <t>st. charles</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>269231</v>
+        <v>3528537</v>
       </c>
       <c r="D101" t="n">
-        <v>1238</v>
+        <v>47411</v>
       </c>
       <c r="E101" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F101" t="n">
-        <v>51149</v>
+        <v>29183</v>
       </c>
       <c r="G101" t="n">
-        <v>0.033</v>
+        <v>0.041</v>
       </c>
       <c r="H101" t="n">
-        <v>0.033</v>
+        <v>0.05</v>
       </c>
       <c r="I101" t="n">
-        <v>0.127</v>
+        <v>0.091</v>
       </c>
       <c r="J101" t="n">
-        <v>0.189</v>
+        <v>0.286</v>
       </c>
       <c r="K101" t="n">
-        <v>0.619</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>prince william</t>
+          <t>st. clair</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4200256</v>
+        <v>47683</v>
       </c>
       <c r="D102" t="n">
-        <v>55915</v>
+        <v>395</v>
       </c>
       <c r="E102" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F102" t="n">
-        <v>51153</v>
+        <v>29185</v>
       </c>
       <c r="G102" t="n">
-        <v>0.047</v>
+        <v>0.163</v>
       </c>
       <c r="H102" t="n">
-        <v>0.027</v>
+        <v>0.145</v>
       </c>
       <c r="I102" t="n">
-        <v>0.055</v>
+        <v>0.182</v>
       </c>
       <c r="J102" t="n">
-        <v>0.11</v>
+        <v>0.279</v>
       </c>
       <c r="K102" t="n">
-        <v>0.7609999999999999</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>pulaski</t>
+          <t>st. francois</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>153585</v>
+        <v>784428</v>
       </c>
       <c r="D103" t="n">
-        <v>3176</v>
+        <v>7515</v>
       </c>
       <c r="E103" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F103" t="n">
-        <v>51155</v>
+        <v>29187</v>
       </c>
       <c r="G103" t="n">
-        <v>0.083</v>
+        <v>0.103</v>
       </c>
       <c r="H103" t="n">
-        <v>0.055</v>
+        <v>0.12</v>
       </c>
       <c r="I103" t="n">
-        <v>0.166</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="J103" t="n">
-        <v>0.173</v>
+        <v>0.264</v>
       </c>
       <c r="K103" t="n">
-        <v>0.523</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>radford city</t>
+          <t>st. louis</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>197289</v>
+        <v>9233278</v>
       </c>
       <c r="D104" t="n">
-        <v>690</v>
+        <v>251422</v>
       </c>
       <c r="E104" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F104" t="n">
-        <v>51750</v>
+        <v>29189</v>
       </c>
       <c r="G104" t="n">
-        <v>0.075</v>
+        <v>0.024</v>
       </c>
       <c r="H104" t="n">
-        <v>0.045</v>
+        <v>0.028</v>
       </c>
       <c r="I104" t="n">
-        <v>0.11</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="J104" t="n">
-        <v>0.177</v>
+        <v>0.182</v>
       </c>
       <c r="K104" t="n">
-        <v>0.593</v>
+        <v>0.6970000000000001</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>rappahannock</t>
+          <t>st. louis city</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>23209</v>
+        <v>2483171</v>
       </c>
       <c r="D105" t="n">
-        <v>418</v>
+        <v>61556</v>
       </c>
       <c r="E105" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F105" t="n">
-        <v>51157</v>
+        <v>29510</v>
       </c>
       <c r="G105" t="n">
-        <v>0.023</v>
+        <v>0.039</v>
       </c>
       <c r="H105" t="n">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="I105" t="n">
-        <v>0.077</v>
+        <v>0.08</v>
       </c>
       <c r="J105" t="n">
-        <v>0.164</v>
+        <v>0.137</v>
       </c>
       <c r="K105" t="n">
-        <v>0.7170000000000001</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>richmond</t>
+          <t>ste. genevieve</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>136418</v>
+        <v>147341</v>
       </c>
       <c r="D106" t="n">
-        <v>1340</v>
+        <v>816</v>
       </c>
       <c r="E106" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F106" t="n">
-        <v>51159</v>
+        <v>29186</v>
       </c>
       <c r="G106" t="n">
-        <v>0.015</v>
+        <v>0.025</v>
       </c>
       <c r="H106" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I106" t="n">
-        <v>0.109</v>
+        <v>0.144</v>
       </c>
       <c r="J106" t="n">
-        <v>0.167</v>
+        <v>0.311</v>
       </c>
       <c r="K106" t="n">
-        <v>0.64</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>richmond city</t>
+          <t>stoddard</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1483512</v>
+        <v>242899</v>
       </c>
       <c r="D107" t="n">
-        <v>17965</v>
+        <v>4433</v>
       </c>
       <c r="E107" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F107" t="n">
-        <v>51760</v>
+        <v>29207</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06</v>
+        <v>0.137</v>
       </c>
       <c r="H107" t="n">
-        <v>0.031</v>
+        <v>0.12</v>
       </c>
       <c r="I107" t="n">
-        <v>0.092</v>
+        <v>0.156</v>
       </c>
       <c r="J107" t="n">
-        <v>0.275</v>
+        <v>0.176</v>
       </c>
       <c r="K107" t="n">
-        <v>0.541</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>roanoke</t>
+          <t>stone</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>534472</v>
+        <v>190666</v>
       </c>
       <c r="D108" t="n">
-        <v>6498</v>
+        <v>2706</v>
       </c>
       <c r="E108" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F108" t="n">
-        <v>51161</v>
+        <v>29209</v>
       </c>
       <c r="G108" t="n">
-        <v>0.065</v>
+        <v>0.056</v>
       </c>
       <c r="H108" t="n">
-        <v>0.045</v>
+        <v>0.093</v>
       </c>
       <c r="I108" t="n">
-        <v>0.077</v>
+        <v>0.171</v>
       </c>
       <c r="J108" t="n">
-        <v>0.205</v>
+        <v>0.247</v>
       </c>
       <c r="K108" t="n">
-        <v>0.607</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>roanoke city</t>
+          <t>sullivan</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>705075</v>
+        <v>90025</v>
       </c>
       <c r="D109" t="n">
-        <v>12075</v>
+        <v>917</v>
       </c>
       <c r="E109" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F109" t="n">
-        <v>51770</v>
+        <v>29211</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.136</v>
       </c>
       <c r="H109" t="n">
-        <v>0.05</v>
+        <v>0.127</v>
       </c>
       <c r="I109" t="n">
-        <v>0.08800000000000001</v>
+        <v>0.174</v>
       </c>
       <c r="J109" t="n">
-        <v>0.212</v>
+        <v>0.223</v>
       </c>
       <c r="K109" t="n">
-        <v>0.58</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>rockbridge</t>
+          <t>taney</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>71619</v>
+        <v>468081</v>
       </c>
       <c r="D110" t="n">
-        <v>1161</v>
+        <v>7484</v>
       </c>
       <c r="E110" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F110" t="n">
-        <v>51163</v>
+        <v>29213</v>
       </c>
       <c r="G110" t="n">
-        <v>0.015</v>
+        <v>0.053</v>
       </c>
       <c r="H110" t="n">
-        <v>0.112</v>
+        <v>0.079</v>
       </c>
       <c r="I110" t="n">
-        <v>0.068</v>
+        <v>0.214</v>
       </c>
       <c r="J110" t="n">
-        <v>0.13</v>
+        <v>0.155</v>
       </c>
       <c r="K110" t="n">
-        <v>0.675</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>rockingham</t>
+          <t>texas</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>552855</v>
+        <v>148515</v>
       </c>
       <c r="D111" t="n">
-        <v>7547</v>
+        <v>1566</v>
       </c>
       <c r="E111" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F111" t="n">
-        <v>51165</v>
+        <v>29215</v>
       </c>
       <c r="G111" t="n">
-        <v>0.034</v>
+        <v>0.309</v>
       </c>
       <c r="H111" t="n">
-        <v>0.062</v>
+        <v>0.171</v>
       </c>
       <c r="I111" t="n">
-        <v>0.139</v>
+        <v>0.231</v>
       </c>
       <c r="J111" t="n">
-        <v>0.212</v>
+        <v>0.106</v>
       </c>
       <c r="K111" t="n">
-        <v>0.5529999999999999</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>russell</t>
+          <t>vernon</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>160137</v>
+        <v>113621</v>
       </c>
       <c r="D112" t="n">
-        <v>1994</v>
+        <v>1886</v>
       </c>
       <c r="E112" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F112" t="n">
-        <v>51167</v>
+        <v>29217</v>
       </c>
       <c r="G112" t="n">
-        <v>0.08199999999999999</v>
+        <v>0.164</v>
       </c>
       <c r="H112" t="n">
-        <v>0.137</v>
+        <v>0.105</v>
       </c>
       <c r="I112" t="n">
-        <v>0.212</v>
+        <v>0.11</v>
       </c>
       <c r="J112" t="n">
-        <v>0.24</v>
+        <v>0.125</v>
       </c>
       <c r="K112" t="n">
-        <v>0.329</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>salem city</t>
+          <t>warren</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>152628</v>
+        <v>239170</v>
       </c>
       <c r="D113" t="n">
-        <v>3225</v>
+        <v>1618</v>
       </c>
       <c r="E113" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F113" t="n">
-        <v>51775</v>
+        <v>29219</v>
       </c>
       <c r="G113" t="n">
-        <v>0.064</v>
+        <v>0.11</v>
       </c>
       <c r="H113" t="n">
-        <v>0.039</v>
+        <v>0.083</v>
       </c>
       <c r="I113" t="n">
-        <v>0.068</v>
+        <v>0.111</v>
       </c>
       <c r="J113" t="n">
-        <v>0.199</v>
+        <v>0.25</v>
       </c>
       <c r="K113" t="n">
-        <v>0.63</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>scott</t>
+          <t>washington</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>129882</v>
+        <v>203442</v>
       </c>
       <c r="D114" t="n">
-        <v>3387</v>
+        <v>4084</v>
       </c>
       <c r="E114" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F114" t="n">
-        <v>51169</v>
+        <v>29221</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.181</v>
       </c>
       <c r="H114" t="n">
-        <v>0.124</v>
+        <v>0.092</v>
       </c>
       <c r="I114" t="n">
-        <v>0.121</v>
+        <v>0.118</v>
       </c>
       <c r="J114" t="n">
-        <v>0.157</v>
+        <v>0.191</v>
       </c>
       <c r="K114" t="n">
-        <v>0.523</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>shenandoah</t>
+          <t>wayne</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>340535</v>
+        <v>78585</v>
       </c>
       <c r="D115" t="n">
-        <v>14807</v>
+        <v>611</v>
       </c>
       <c r="E115" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F115" t="n">
-        <v>51171</v>
+        <v>29223</v>
       </c>
       <c r="G115" t="n">
-        <v>0.023</v>
+        <v>0.191</v>
       </c>
       <c r="H115" t="n">
-        <v>0.039</v>
+        <v>0.171</v>
       </c>
       <c r="I115" t="n">
-        <v>0.136</v>
+        <v>0.13</v>
       </c>
       <c r="J115" t="n">
-        <v>0.288</v>
+        <v>0.196</v>
       </c>
       <c r="K115" t="n">
-        <v>0.514</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>smyth</t>
+          <t>webster</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>204819</v>
+        <v>284843</v>
       </c>
       <c r="D116" t="n">
-        <v>6277</v>
+        <v>3988</v>
       </c>
       <c r="E116" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F116" t="n">
-        <v>51173</v>
+        <v>29225</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.297</v>
       </c>
       <c r="H116" t="n">
-        <v>0.079</v>
+        <v>0.09</v>
       </c>
       <c r="I116" t="n">
-        <v>0.237</v>
+        <v>0.162</v>
       </c>
       <c r="J116" t="n">
-        <v>0.182</v>
+        <v>0.137</v>
       </c>
       <c r="K116" t="n">
-        <v>0.415</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>southampton</t>
+          <t>worth</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>197517</v>
+        <v>12350</v>
       </c>
       <c r="D117" t="n">
-        <v>6701</v>
+        <v>56</v>
       </c>
       <c r="E117" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F117" t="n">
-        <v>51175</v>
+        <v>29227</v>
       </c>
       <c r="G117" t="n">
-        <v>0.019</v>
+        <v>0.098</v>
       </c>
       <c r="H117" t="n">
-        <v>0.013</v>
+        <v>0.17</v>
       </c>
       <c r="I117" t="n">
-        <v>0.063</v>
+        <v>0.218</v>
       </c>
       <c r="J117" t="n">
-        <v>0.2160000000000001</v>
+        <v>0.272</v>
       </c>
       <c r="K117" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>spotsylvania</t>
+          <t>wright</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>missouri</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>732609</v>
+        <v>130199</v>
       </c>
       <c r="D118" t="n">
-        <v>12395</v>
+        <v>2032</v>
       </c>
       <c r="E118" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F118" t="n">
-        <v>51177</v>
+        <v>29229</v>
       </c>
       <c r="G118" t="n">
-        <v>0.05</v>
+        <v>0.419</v>
       </c>
       <c r="H118" t="n">
-        <v>0.019</v>
+        <v>0.139</v>
       </c>
       <c r="I118" t="n">
-        <v>0.03</v>
+        <v>0.187</v>
       </c>
       <c r="J118" t="n">
-        <v>0.115</v>
+        <v>0.1</v>
       </c>
       <c r="K118" t="n">
-        <v>0.785</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>stafford</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>virginia</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>770302</v>
-      </c>
-      <c r="D119" t="n">
-        <v>4810</v>
-      </c>
-      <c r="E119" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F119" t="n">
-        <v>51179</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.097</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.728</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>staunton city</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>virginia</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>170492</v>
-      </c>
-      <c r="D120" t="n">
-        <v>2890</v>
-      </c>
-      <c r="E120" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F120" t="n">
-        <v>51790</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.158</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.718</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>suffolk city</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>virginia</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>613109</v>
-      </c>
-      <c r="D121" t="n">
-        <v>18656</v>
-      </c>
-      <c r="E121" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F121" t="n">
-        <v>51800</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.006999999999999999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.208</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.5649999999999999</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>surry</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>virginia</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>34194</v>
-      </c>
-      <c r="D122" t="n">
-        <v>905</v>
-      </c>
-      <c r="E122" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F122" t="n">
-        <v>51181</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.249</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.721</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>sussex</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>virginia</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>134378</v>
-      </c>
-      <c r="D123" t="n">
-        <v>2682</v>
-      </c>
-      <c r="E123" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F123" t="n">
-        <v>51183</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.218</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.698</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>tazewell</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>virginia</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>224482</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1880</v>
-      </c>
-      <c r="E124" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F124" t="n">
-        <v>51185</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.264</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>virginia beach city</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>virginia</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>2428239</v>
-      </c>
-      <c r="D125" t="n">
-        <v>25390</v>
-      </c>
-      <c r="E125" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F125" t="n">
-        <v>51810</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.202</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.6779999999999999</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>warren</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>virginia</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>192962</v>
-      </c>
-      <c r="D126" t="n">
-        <v>4460</v>
-      </c>
-      <c r="E126" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F126" t="n">
-        <v>51187</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.08800000000000001</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.669</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>washington</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>virginia</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>333584</v>
-      </c>
-      <c r="D127" t="n">
-        <v>6685</v>
-      </c>
-      <c r="E127" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F127" t="n">
-        <v>51191</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.123</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.266</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.368</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>waynesboro city</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>virginia</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>145779</v>
-      </c>
-      <c r="D128" t="n">
-        <v>1598</v>
-      </c>
-      <c r="E128" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F128" t="n">
-        <v>51820</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.1860000000000001</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>westmoreland</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>virginia</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>101640</v>
-      </c>
-      <c r="D129" t="n">
-        <v>1425</v>
-      </c>
-      <c r="E129" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F129" t="n">
-        <v>51193</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>williamsburg city</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>virginia</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>57617</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1943</v>
-      </c>
-      <c r="E130" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F130" t="n">
-        <v>51830</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0.009000000000000001</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0.249</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.737</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>winchester city</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>virginia</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>223189</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1708</v>
-      </c>
-      <c r="E131" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F131" t="n">
-        <v>51840</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.277</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.611</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>wise</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>virginia</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>225312</v>
-      </c>
-      <c r="D132" t="n">
-        <v>6397</v>
-      </c>
-      <c r="E132" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F132" t="n">
-        <v>51195</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.158</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.643</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>wythe</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>virginia</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>141508</v>
-      </c>
-      <c r="D133" t="n">
-        <v>2649</v>
-      </c>
-      <c r="E133" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F133" t="n">
-        <v>51197</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.096</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.447</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>york</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>virginia</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>212358</v>
-      </c>
-      <c r="D134" t="n">
-        <v>2109</v>
-      </c>
-      <c r="E134" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F134" t="n">
-        <v>51199</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.162</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.7859999999999999</v>
+        <v>0.155</v>
       </c>
     </row>
   </sheetData>
